--- a/чек-лист _Авторизация Ozon_.xlsx
+++ b/чек-лист _Авторизация Ozon_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena_pups\Desktop\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena_pups\Desktop\Новая папка\документация\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1DCABB-23F9-4501-BD1E-D199D49E764D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C9CE3-C734-4274-B6BD-B91A8ED9B42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>Получен код подтверждения</t>
   </si>
   <si>
-    <t>Не существующий номер &gt; сообщение об ошибке</t>
-  </si>
-  <si>
     <t>Кнопка неактивна/активна</t>
   </si>
   <si>
@@ -118,12 +115,6 @@
     <t>Кнопка отмены</t>
   </si>
   <si>
-    <t>Закройте окно подтверждения без ввода кода</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отправьте код повторно </t>
-  </si>
-  <si>
     <t xml:space="preserve">Введите неправильный код подтверждения &gt; сообщение об ошибке </t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>Не могу войти</t>
   </si>
   <si>
-    <t>Регистрация через ГосуслугиID</t>
-  </si>
-  <si>
     <t>При наличии авторизации в Госуслугах &gt; успешно</t>
   </si>
   <si>
@@ -172,21 +160,12 @@
     <t>Нет доступа к телефону</t>
   </si>
   <si>
-    <t>нет доступа к почте</t>
-  </si>
-  <si>
     <t>Авторизация уже существующего пользователя</t>
   </si>
   <si>
     <t>Код страны прописан</t>
   </si>
   <si>
-    <t>Флаг страны</t>
-  </si>
-  <si>
-    <t>Автоматический выбор страны взависимости от геолокации</t>
-  </si>
-  <si>
     <t>Страны указаны в алфавитном порядке</t>
   </si>
   <si>
@@ -205,28 +184,49 @@
     <t xml:space="preserve">Выпадающий список с номерами </t>
   </si>
   <si>
-    <t>Отправьте код повторно через звонок</t>
-  </si>
-  <si>
-    <t>Измените адрес электронной почты после получения данных о Ozon карте</t>
-  </si>
-  <si>
     <t>Переадрисация на сраницу настройки аккаунта</t>
   </si>
   <si>
     <t>Повторная регистрация</t>
   </si>
   <si>
-    <t>Измените номер после получения данных о Ozon карте</t>
-  </si>
-  <si>
     <t>SQL-инъекция&gt; сообщение об ошибке</t>
   </si>
   <si>
     <t>XSS уязвимость&gt; сообщение об ошибке</t>
   </si>
   <si>
-    <t>При отсутствии авторизации в Госуслугах &gt;переадрисация на сраницу авторизации в госулугах</t>
+    <t xml:space="preserve">Флаг страны </t>
+  </si>
+  <si>
+    <t>Автоматический выбор страны в зависимости от геолокации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправить код повторно </t>
+  </si>
+  <si>
+    <t>Несуществующий номер &gt; сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Закрыть окно подтверждения без ввода кода</t>
+  </si>
+  <si>
+    <t>Получить код повторно через звонок</t>
+  </si>
+  <si>
+    <t>При отсутствии авторизации в Госуслугах &gt;переадрисация на сраницу авторизации на Госулугах</t>
+  </si>
+  <si>
+    <t>Регистрация через Госуслуги</t>
+  </si>
+  <si>
+    <t>Нет доступа к почте</t>
+  </si>
+  <si>
+    <t>Измените адрес электронной почты после получения данных карты Ozon</t>
+  </si>
+  <si>
+    <t>Измените номер после получения данных  карты Ozon</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -320,9 +320,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -347,11 +344,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,20 +660,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="18.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -721,380 +748,406 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
+      <c r="C46" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B47" s="15" t="s">
+    <row r="47" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C24:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A7:A47"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B24:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
